--- a/pegawai/assets/template/peminjaman.xlsx
+++ b/pegawai/assets/template/peminjaman.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\skripsi-reza\pegawai\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB834EF-1AA7-442C-AC66-0B9815FAA173}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3C473D-4138-4B18-92ED-6136C025B4D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{6FE9F310-EA35-4333-84DD-544E637F1989}"/>
+    <workbookView xWindow="49170" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{6FE9F310-EA35-4333-84DD-544E637F1989}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>PEMERINTAH KABUPATEN PURBALINGGA</t>
   </si>
@@ -39,9 +39,6 @@
     <t>KECAMATAN KARANGANYAR</t>
   </si>
   <si>
-    <t>SEKRETARIS DESA KABUNDERAN</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -82,6 +79,12 @@
   </si>
   <si>
     <t>Tanggal Pengembalian</t>
+  </si>
+  <si>
+    <t>DESA KABUNDERAN</t>
+  </si>
+  <si>
+    <t>Jl. Ds. Kabunderan, Kabunderan, Kec. Karanganyar, Kab. Purbalingga, Kode Pos  53354</t>
   </si>
 </sst>
 </file>
@@ -175,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -191,7 +194,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -563,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F666A36A-4629-4C10-B2F5-6CC8D41B5BD3}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -594,113 +600,122 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
+    <row r="4" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A5:D5"/>
+  <mergeCells count="6">
     <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
